--- a/xls/subject_date_analysis.xlsx
+++ b/xls/subject_date_analysis.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\American_Literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\Son_of_Am_Lit\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="12">
   <si>
     <t>1600-1699</t>
   </si>
@@ -55,6 +57,15 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>No Period Listed</t>
+  </si>
+  <si>
+    <t>2000-2099</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -137,7 +148,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Nancy M Foasberg" refreshedDate="43531.58219108796" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="100">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B101" sheet="Sheet1"/>
+    <worksheetSource ref="A1:B97" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Subject Dates" numFmtId="0">
@@ -160,6 +171,33 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Nancy M Foasberg" refreshedDate="43538.839510763886" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="97">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B98" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Subject Dates" numFmtId="0">
+      <sharedItems count="5">
+        <s v="1600-1699"/>
+        <s v="1700-1799"/>
+        <s v="1800-1899"/>
+        <s v="1900-1999"/>
+        <s v="No Period Listed"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dataset" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1950" maxValue="2010"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="100">
   <r>
@@ -560,13 +598,406 @@
   </r>
   <r>
     <x v="2"/>
+    <n v="2010"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="97">
+  <r>
+    <x v="0"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2010"/>
+  </r>
+  <r>
+    <x v="4"/>
     <n v="2010"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -606,6 +1037,57 @@
   <dataFields count="1">
     <dataField name="Count of Subject Dates" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -881,7 +1363,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,10 +1427,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A3:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,12 +1530,12 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>COUNTIF(A2:A42, "1600-1699")</f>
+        <f>COUNTIF(A2:A38, "1600-1699")</f>
         <v>1</v>
       </c>
       <c r="K4" s="5">
         <f>J4/J8</f>
-        <v>2.4390243902439025E-2</v>
+        <v>2.7027027027027029E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1013,12 +1549,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f>COUNTIF(A2:A42, "1700-1799")</f>
+        <f>COUNTIF(A2:A38, "1700-1799")</f>
         <v>2</v>
       </c>
       <c r="K5" s="5">
         <f>J5/J8</f>
-        <v>4.878048780487805E-2</v>
+        <v>5.4054054054054057E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1032,12 +1568,12 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <f>COUNTIF(A2:A42, "1800-1899")</f>
-        <v>32</v>
+        <f>COUNTIF(A2:A38, "1800-1899")</f>
+        <v>29</v>
       </c>
       <c r="K6" s="5">
         <f>J6/J8</f>
-        <v>0.78048780487804881</v>
+        <v>0.78378378378378377</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1051,12 +1587,12 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <f>COUNTIF(A2:A42, "1900-1999")</f>
-        <v>6</v>
+        <f>COUNTIF(A2:A38, "1900-1999")</f>
+        <v>5</v>
       </c>
       <c r="K7" s="5">
         <f>J7/J8</f>
-        <v>0.14634146341463414</v>
+        <v>0.13513513513513514</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1068,7 +1604,7 @@
       </c>
       <c r="J8">
         <f>SUM(J4:J7)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K8" s="6">
         <f>SUM(K4:K7)</f>
@@ -1121,11 +1657,11 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <f>COUNTIF(A42:A77, "1600-1699")</f>
+        <f>COUNTIF(A39:A73, "1600-1699")</f>
         <v>2</v>
       </c>
       <c r="K13" s="5">
-        <f>J13/J17</f>
+        <f>J13/J18</f>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1140,11 +1676,11 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <f>COUNTIF(A43:A77, "1700-1799")</f>
+        <f>COUNTIF(A39:A73, "1700-1799")</f>
         <v>2</v>
       </c>
       <c r="K14" s="5">
-        <f>J14/J17</f>
+        <f>J14/J18</f>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1159,12 +1695,12 @@
         <v>2</v>
       </c>
       <c r="J15">
-        <f>COUNTIF(A44:A77, "1800-1899")</f>
-        <v>19</v>
+        <f>COUNTIF(A39:A73, "1800-1899")</f>
+        <v>17</v>
       </c>
       <c r="K15" s="5">
-        <f>J15/J17</f>
-        <v>0.54285714285714282</v>
+        <f>J15/J18</f>
+        <v>0.48571428571428571</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1178,11 +1714,11 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <f>COUNTIF(A45:A77, "1900-1999")</f>
+        <f>COUNTIF(A39:A73, "1900-1999")</f>
         <v>12</v>
       </c>
       <c r="K16" s="5">
-        <f>J16/J17</f>
+        <f>J16/J18</f>
         <v>0.34285714285714286</v>
       </c>
     </row>
@@ -1193,13 +1729,16 @@
       <c r="B17">
         <v>1950</v>
       </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
       <c r="J17">
-        <f>SUM(J13:J16)</f>
-        <v>35</v>
-      </c>
-      <c r="K17" s="6">
-        <f>SUM(K13:K16)</f>
-        <v>1</v>
+        <f>COUNTIF(A39:A73, "No Period Listed")</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="5">
+        <f>J17/J18</f>
+        <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1209,6 +1748,14 @@
       <c r="B18">
         <v>1950</v>
       </c>
+      <c r="J18">
+        <f>SUM(J13:J17)</f>
+        <v>35</v>
+      </c>
+      <c r="K18" s="6">
+        <f>SUM(K13:K17)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1233,9 +1780,6 @@
       <c r="B21">
         <v>1950</v>
       </c>
-      <c r="I21">
-        <v>2010</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1244,16 +1788,8 @@
       <c r="B22">
         <v>1950</v>
       </c>
-      <c r="I22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>COUNTIF(A78:A101, "1600-1699")</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <f>J22/J26</f>
-        <v>0</v>
+      <c r="I22">
+        <v>2010</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1264,15 +1800,15 @@
         <v>1950</v>
       </c>
       <c r="I23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <f>COUNTIF(A78:A101, "1700-1799")</f>
-        <v>1</v>
+        <f>COUNTIF(A74:A98, "1600-1699")</f>
+        <v>0</v>
       </c>
       <c r="K23" s="5">
-        <f>J23/J26</f>
-        <v>4.1666666666666664E-2</v>
+        <f>J23/J29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1283,15 +1819,15 @@
         <v>1950</v>
       </c>
       <c r="I24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <f>COUNTIF(A78:A101, "1800-1899")</f>
-        <v>13</v>
+        <f>COUNTIF(A74:A98, "1700-1799")</f>
+        <v>1</v>
       </c>
       <c r="K24" s="5">
-        <f>J24/J26</f>
-        <v>0.54166666666666663</v>
+        <f>J24/J29</f>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1302,15 +1838,15 @@
         <v>1950</v>
       </c>
       <c r="I25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <f>COUNTIF(A78:A101, "1900-1999")</f>
-        <v>10</v>
+        <f>COUNTIF(A74:A98, "1800-1899")</f>
+        <v>13</v>
       </c>
       <c r="K25" s="5">
-        <f>J25/J26</f>
-        <v>0.41666666666666669</v>
+        <f>J25/J29</f>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1320,13 +1856,16 @@
       <c r="B26">
         <v>1950</v>
       </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
       <c r="J26">
-        <f>SUM(J22:J25)</f>
-        <v>24</v>
+        <f>COUNTIF(A74:A98, "1900-1999")</f>
+        <v>10</v>
       </c>
       <c r="K26" s="5">
-        <f>SUM(K22:K25)</f>
-        <v>1</v>
+        <f>J26/J29</f>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1336,6 +1875,17 @@
       <c r="B27">
         <v>1950</v>
       </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <f>COUNTIF(A74:A98, "2000-2099")</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <f>J27/J29</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1344,6 +1894,17 @@
       <c r="B28">
         <v>1950</v>
       </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28">
+        <f>COUNTIF(A74:A98, "No Period Listed")</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <f>J28/J29</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1352,6 +1913,14 @@
       <c r="B29">
         <v>1950</v>
       </c>
+      <c r="J29">
+        <f>SUM(J23:J26)</f>
+        <v>24</v>
+      </c>
+      <c r="K29" s="5">
+        <f>SUM(K23:K26)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1377,119 +1946,199 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B33">
         <v>1950</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <v>1950</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>COUNTIF(A2:A99, "1600-1699")</f>
+        <v>3</v>
+      </c>
+      <c r="K34" s="6">
+        <f>J34/J40</f>
+        <v>3.0927835051546393E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>1950</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f>COUNTIF(A2:A99, "1700-1799")</f>
+        <v>5</v>
+      </c>
+      <c r="K35" s="6">
+        <f>J35/J40</f>
+        <v>5.1546391752577317E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36">
         <v>1950</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <f>COUNTIF(A2:A99, "1800-1899")</f>
+        <v>59</v>
+      </c>
+      <c r="K36" s="6">
+        <f>J36/J40</f>
+        <v>0.60824742268041232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B37">
         <v>1950</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f>COUNTIF(A2:A99, "1900-1999")</f>
+        <v>27</v>
+      </c>
+      <c r="K37" s="6">
+        <f>J37/J40</f>
+        <v>0.27835051546391754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B38">
         <v>1950</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <f>COUNTIF(A2:A99, "2000-2099")</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <f>J38/J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <f>COUNTIF(A2:A99, "No Period Listed")</f>
+        <v>3</v>
+      </c>
+      <c r="K39" s="6">
+        <f>J39/J40</f>
+        <v>3.0927835051546393E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <f>SUM(J34:J39)</f>
+        <v>97</v>
+      </c>
+      <c r="K40" s="6">
+        <f>SUM(K34:K39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>1980</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>1980</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>1980</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46">
         <v>1980</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +2146,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +2260,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>1980</v>
@@ -1619,7 +2268,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63">
         <v>1980</v>
@@ -1627,7 +2276,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64">
         <v>1980</v>
@@ -1635,7 +2284,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65">
         <v>1980</v>
@@ -1707,39 +2356,39 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>1980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>1980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76">
-        <v>1980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>1980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78">
         <v>2010</v>
@@ -1811,7 +2460,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87">
         <v>2010</v>
@@ -1819,7 +2468,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88">
         <v>2010</v>
@@ -1827,7 +2476,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B89">
         <v>2010</v>
@@ -1835,7 +2484,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <v>2010</v>
@@ -1891,7 +2540,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97">
         <v>2010</v>
@@ -1899,37 +2548,14 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B98">
         <v>2010</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101">
-        <v>2010</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xls/subject_date_analysis.xlsx
+++ b/xls/subject_date_analysis.xlsx
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,12 +86,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,11 +109,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -174,7 +165,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Nancy M Foasberg" refreshedDate="43538.839510763886" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="97">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B98" sheet="Sheet1"/>
+    <worksheetSource ref="A1:B97" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Subject Dates" numFmtId="0">
@@ -997,7 +988,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1047,7 +1038,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -1373,7 +1364,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1381,42 +1372,42 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1440,37 +1431,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1481,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1492,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1509,7 +1500,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1520,7 +1511,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
@@ -1533,13 +1524,13 @@
         <f>COUNTIF(A2:A38, "1600-1699")</f>
         <v>1</v>
       </c>
-      <c r="K4" s="5">
-        <f>J4/J8</f>
+      <c r="K4" s="4">
+        <f>J4/J9</f>
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -1552,13 +1543,13 @@
         <f>COUNTIF(A2:A38, "1700-1799")</f>
         <v>2</v>
       </c>
-      <c r="K5" s="5">
-        <f>J5/J8</f>
+      <c r="K5" s="4">
+        <f>J5/J9</f>
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -1571,13 +1562,13 @@
         <f>COUNTIF(A2:A38, "1800-1899")</f>
         <v>29</v>
       </c>
-      <c r="K6" s="5">
-        <f>J6/J8</f>
+      <c r="K6" s="4">
+        <f>J6/J9</f>
         <v>0.78378378378378377</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
@@ -1590,37 +1581,48 @@
         <f>COUNTIF(A2:A38, "1900-1999")</f>
         <v>5</v>
       </c>
-      <c r="K7" s="5">
-        <f>J7/J8</f>
+      <c r="K7" s="4">
+        <f>J7/J9</f>
         <v>0.13513513513513514</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
         <v>1950</v>
       </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
       <c r="J8">
+        <f>COUNTIF(A2:A38, "No Period Listed")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f>J8/J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1950</v>
+      </c>
+      <c r="J9">
         <f>SUM(J4:J7)</f>
         <v>37</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K9" s="5">
         <f>SUM(K4:K7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1950</v>
-      </c>
-    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
@@ -1628,7 +1630,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
@@ -1636,137 +1638,137 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>1950</v>
       </c>
-      <c r="I12">
-        <v>1980</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
         <v>1950</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1950</v>
+      </c>
+      <c r="I14" t="s">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <f>COUNTIF(A39:A73, "1600-1699")</f>
         <v>2</v>
       </c>
-      <c r="K13" s="5">
-        <f>J13/J18</f>
+      <c r="K14" s="4">
+        <f>J14/J19</f>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1950</v>
-      </c>
-      <c r="I14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1950</v>
+      </c>
+      <c r="I15" t="s">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <f>COUNTIF(A39:A73, "1700-1799")</f>
         <v>2</v>
       </c>
-      <c r="K14" s="5">
-        <f>J14/J18</f>
+      <c r="K15" s="4">
+        <f>J15/J19</f>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>1950</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1950</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16">
         <f>COUNTIF(A39:A73, "1800-1899")</f>
         <v>17</v>
       </c>
-      <c r="K15" s="5">
-        <f>J15/J18</f>
+      <c r="K16" s="4">
+        <f>J16/J19</f>
         <v>0.48571428571428571</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>1950</v>
-      </c>
-      <c r="I16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1950</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17">
         <f>COUNTIF(A39:A73, "1900-1999")</f>
         <v>12</v>
       </c>
-      <c r="K16" s="5">
-        <f>J16/J18</f>
+      <c r="K17" s="4">
+        <f>J17/J19</f>
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>1950</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1950</v>
+      </c>
+      <c r="I18" t="s">
         <v>9</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <f>COUNTIF(A39:A73, "No Period Listed")</f>
         <v>2</v>
       </c>
-      <c r="K17" s="5">
-        <f>J17/J18</f>
+      <c r="K18" s="4">
+        <f>J18/J19</f>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>1950</v>
-      </c>
-      <c r="J18">
-        <f>SUM(J13:J17)</f>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1950</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J14:J18)</f>
         <v>35</v>
       </c>
-      <c r="K18" s="6">
-        <f>SUM(K13:K17)</f>
+      <c r="K19" s="5">
+        <f>SUM(K14:K18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>1950</v>
-      </c>
-    </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
@@ -1774,7 +1776,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
@@ -1782,348 +1784,352 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
         <v>1950</v>
       </c>
-      <c r="I22">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1950</v>
+      </c>
+      <c r="I23">
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>1950</v>
-      </c>
-      <c r="I23" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1950</v>
+      </c>
+      <c r="I24" t="s">
         <v>0</v>
       </c>
-      <c r="J23">
-        <f>COUNTIF(A74:A98, "1600-1699")</f>
+      <c r="J24">
+        <f>COUNTIF(A74:A97, "1600-1699")</f>
         <v>0</v>
       </c>
-      <c r="K23" s="5">
-        <f>J23/J29</f>
+      <c r="K24" s="4">
+        <f>J24/J30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>1950</v>
-      </c>
-      <c r="I24" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1950</v>
+      </c>
+      <c r="I25" t="s">
         <v>1</v>
       </c>
-      <c r="J24">
-        <f>COUNTIF(A74:A98, "1700-1799")</f>
+      <c r="J25">
+        <f>COUNTIF(A74:A97, "1700-1799")</f>
         <v>1</v>
       </c>
-      <c r="K24" s="5">
-        <f>J24/J29</f>
+      <c r="K25" s="4">
+        <f>J25/J30</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>1950</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <f>COUNTIF(A74:A98, "1800-1899")</f>
-        <v>13</v>
-      </c>
-      <c r="K25" s="5">
-        <f>J25/J29</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
         <v>1950</v>
       </c>
       <c r="I26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <f>COUNTIF(A74:A98, "1900-1999")</f>
+        <f>COUNTIF(A74:A97, "1800-1899")</f>
+        <v>12</v>
+      </c>
+      <c r="K26" s="4">
+        <f>J26/J30</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1950</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f>COUNTIF(A74:A97, "1900-1999")</f>
         <v>10</v>
       </c>
-      <c r="K26" s="5">
-        <f>J26/J29</f>
+      <c r="K27" s="4">
+        <f>J27/J30</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>1950</v>
-      </c>
-      <c r="I27" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1950</v>
+      </c>
+      <c r="E28">
+        <f>COUNTIF(B1:B99,"2010")</f>
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="J27">
-        <f>COUNTIF(A74:A98, "2000-2099")</f>
+      <c r="J28">
+        <f>COUNTIF(A74:A97, "2000-2099")</f>
         <v>0</v>
       </c>
-      <c r="K27" s="5">
-        <f>J27/J29</f>
+      <c r="K28" s="4">
+        <f>J28/J30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>1950</v>
-      </c>
-      <c r="I28" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1950</v>
+      </c>
+      <c r="I29" t="s">
         <v>9</v>
       </c>
-      <c r="J28">
-        <f>COUNTIF(A74:A98, "No Period Listed")</f>
+      <c r="J29">
+        <f>COUNTIF(A74:A97, "No Period Listed")</f>
         <v>1</v>
       </c>
-      <c r="K28" s="5">
-        <f>J28/J29</f>
+      <c r="K29" s="4">
+        <f>J29/J30</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>1950</v>
-      </c>
-      <c r="J29">
-        <f>SUM(J23:J26)</f>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1950</v>
+      </c>
+      <c r="J30">
+        <f>SUM(J24:J29)</f>
         <v>24</v>
       </c>
-      <c r="K29" s="5">
-        <f>SUM(K23:K26)</f>
+      <c r="K30" s="4">
+        <f>SUM(K24:K27)</f>
+        <v>0.95833333333333326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1950</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1950</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>COUNTIF(A2:A98, "1600-1699")</f>
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
+        <f>J35/J41</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1950</v>
+      </c>
+      <c r="I36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <v>1950</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J36">
+        <f>COUNTIF(A2:A98, "1700-1799")</f>
+        <v>5</v>
+      </c>
+      <c r="K36" s="5">
+        <f>J36/J41</f>
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1950</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <f>COUNTIF(A2:A98, "1800-1899")</f>
+        <v>58</v>
+      </c>
+      <c r="K37" s="5">
+        <f>J37/J41</f>
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1950</v>
+      </c>
+      <c r="I38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <f>COUNTIF(A2:A98, "1900-1999")</f>
+        <v>27</v>
+      </c>
+      <c r="K38" s="5">
+        <f>J38/J41</f>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>1980</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <f>COUNTIF(A2:A98, "2000-2099")</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <f>J39/J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>1980</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <f>COUNTIF(A2:A98, "No Period Listed")</f>
+        <v>3</v>
+      </c>
+      <c r="K40" s="5">
+        <f>J40/J41</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1980</v>
+      </c>
+      <c r="I41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>1950</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J41">
+        <f>SUM(J35:J40)</f>
+        <v>96</v>
+      </c>
+      <c r="K41" s="5">
+        <f>SUM(K35:K40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="J34">
-        <f>COUNTIF(A2:A99, "1600-1699")</f>
-        <v>3</v>
-      </c>
-      <c r="K34" s="6">
-        <f>J34/J40</f>
-        <v>3.0927835051546393E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>1950</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="B42">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="J35">
-        <f>COUNTIF(A2:A99, "1700-1799")</f>
-        <v>5</v>
-      </c>
-      <c r="K35" s="6">
-        <f>J35/J40</f>
-        <v>5.1546391752577317E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>1950</v>
-      </c>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <f>COUNTIF(A2:A99, "1800-1899")</f>
-        <v>59</v>
-      </c>
-      <c r="K36" s="6">
-        <f>J36/J40</f>
-        <v>0.60824742268041232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>1950</v>
-      </c>
-      <c r="I37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <f>COUNTIF(A2:A99, "1900-1999")</f>
-        <v>27</v>
-      </c>
-      <c r="K37" s="6">
-        <f>J37/J40</f>
-        <v>0.27835051546391754</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38">
-        <v>1950</v>
-      </c>
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <f>COUNTIF(A2:A99, "2000-2099")</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <f>J38/J40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <v>1980</v>
-      </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39">
-        <f>COUNTIF(A2:A99, "No Period Listed")</f>
-        <v>3</v>
-      </c>
-      <c r="K39" s="6">
-        <f>J39/J40</f>
-        <v>3.0927835051546393E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>1980</v>
-      </c>
-      <c r="I40" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40">
-        <f>SUM(J34:J39)</f>
-        <v>97</v>
-      </c>
-      <c r="K40" s="6">
-        <f>SUM(K34:K39)</f>
+      <c r="B43">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B44">
         <v>1980</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45">
@@ -2131,7 +2137,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46">
@@ -2139,7 +2145,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47">
@@ -2147,7 +2153,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48">
@@ -2155,7 +2161,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49">
@@ -2163,7 +2169,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
@@ -2171,7 +2177,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51">
@@ -2179,7 +2185,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52">
@@ -2187,7 +2193,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53">
@@ -2195,7 +2201,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54">
@@ -2203,7 +2209,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
@@ -2211,7 +2217,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56">
@@ -2219,7 +2225,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57">
@@ -2227,7 +2233,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
@@ -2235,7 +2241,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
@@ -2243,7 +2249,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
@@ -2251,7 +2257,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
@@ -2259,7 +2265,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62">
@@ -2267,7 +2273,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63">
@@ -2275,7 +2281,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>3</v>
       </c>
       <c r="B64">
@@ -2283,7 +2289,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>3</v>
       </c>
       <c r="B65">
@@ -2291,7 +2297,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>3</v>
       </c>
       <c r="B66">
@@ -2299,7 +2305,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67">
@@ -2307,7 +2313,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68">
@@ -2315,7 +2321,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69">
@@ -2323,7 +2329,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>3</v>
       </c>
       <c r="B70">
@@ -2331,7 +2337,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71">
@@ -2339,7 +2345,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72">
@@ -2347,7 +2353,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73">
@@ -2355,7 +2361,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>1</v>
       </c>
       <c r="B74">
@@ -2363,7 +2369,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75">
@@ -2371,7 +2377,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
@@ -2379,7 +2385,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
@@ -2387,7 +2393,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>2</v>
       </c>
       <c r="B78">
@@ -2395,7 +2401,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79">
@@ -2403,7 +2409,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80">
@@ -2411,7 +2417,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81">
@@ -2419,7 +2425,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82">
@@ -2427,7 +2433,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83">
@@ -2435,7 +2441,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
@@ -2443,7 +2449,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
@@ -2451,7 +2457,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
@@ -2459,7 +2465,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>3</v>
       </c>
       <c r="B87">
@@ -2467,7 +2473,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88">
@@ -2475,7 +2481,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89">
@@ -2483,7 +2489,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90">
@@ -2491,7 +2497,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>3</v>
       </c>
       <c r="B91">
@@ -2499,7 +2505,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>3</v>
       </c>
       <c r="B92">
@@ -2507,7 +2513,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>3</v>
       </c>
       <c r="B93">
@@ -2515,7 +2521,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>3</v>
       </c>
       <c r="B94">
@@ -2523,7 +2529,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>3</v>
       </c>
       <c r="B95">
@@ -2531,7 +2537,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>3</v>
       </c>
       <c r="B96">
@@ -2539,18 +2545,10 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>2</v>
+      <c r="A97" t="s">
+        <v>9</v>
       </c>
       <c r="B97">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98">
         <v>2010</v>
       </c>
     </row>
